--- a/public/static/template/import_chw_en.xlsx
+++ b/public/static/template/import_chw_en.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ztang/workspace/unc/src/visit-link-admin-web/public/static/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B061AD8-FB17-534B-9317-A55F72FF1BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25400" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Baby Roster" sheetId="1" r:id="rId4"/>
+    <sheet name="Baby Roster" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -42,40 +51,45 @@
 </t>
   </si>
   <si>
-    <t>1. Require</t>
+    <t>1.Required</t>
   </si>
   <si>
-    <t>1.Required</t>
+    <t>1. Required
+2. Validation:
+No more than 50 characters.
+Only allow alphabetic
+characters and space,
+disallowing other special
+characters or numbers.</t>
+  </si>
+  <si>
+    <t>1. Require
+2. Validation:
+CHW Phone allow 5-20 digits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -123,34 +137,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -160,25 +167,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffebabb5"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFEBABB5"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -380,7 +447,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -398,7 +465,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -427,7 +494,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -452,7 +519,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -477,7 +544,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -502,7 +569,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -527,7 +594,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -552,7 +619,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -577,7 +644,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -602,7 +669,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -627,7 +694,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -640,9 +707,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -659,7 +732,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -677,7 +750,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -702,7 +775,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -727,7 +800,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -752,7 +825,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -777,7 +850,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -802,7 +875,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -827,7 +900,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -852,7 +925,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -877,7 +950,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -902,7 +975,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -915,9 +988,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -931,7 +1010,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -949,7 +1028,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -978,7 +1057,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1003,7 +1082,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1028,7 +1107,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,7 +1132,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1078,7 +1157,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1103,7 +1182,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1128,7 +1207,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1153,7 +1232,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1257,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1191,61 +1270,71 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R196"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="27.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.8516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.3516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.8516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.8516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.3516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.8516" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.8516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23.6719" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6719" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3"/>
@@ -1261,23 +1350,23 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" ht="88" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>6</v>
+    <row r="2" spans="1:18" ht="109" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="5"/>
@@ -1293,7 +1382,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" ht="35" customHeight="1">
+    <row r="3" spans="1:18" ht="35" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -1313,7 +1402,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:18" ht="16" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -1333,7 +1422,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:18" ht="16" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -1353,7 +1442,7 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:18" ht="16" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -1373,7 +1462,7 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:18" ht="16" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -1393,7 +1482,7 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:18" ht="16" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -1413,7 +1502,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:18" ht="16" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
@@ -1433,7 +1522,7 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:18" ht="16" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
@@ -1453,7 +1542,7 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
+    <row r="11" spans="1:18" ht="16" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -1473,7 +1562,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
+    <row r="12" spans="1:18" ht="16" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -1493,7 +1582,7 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
+    <row r="13" spans="1:18" ht="16" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -1513,7 +1602,7 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
+    <row r="14" spans="1:18" ht="16" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -1533,7 +1622,7 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
+    <row r="15" spans="1:18" ht="16" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -1553,7 +1642,7 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
+    <row r="16" spans="1:18" ht="16" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -1573,7 +1662,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
+    <row r="17" spans="1:18" ht="16" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -1593,7 +1682,7 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
+    <row r="18" spans="1:18" ht="16" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -1613,7 +1702,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
+    <row r="19" spans="1:18" ht="16" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -1633,7 +1722,7 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
+    <row r="20" spans="1:18" ht="16" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -1653,7 +1742,7 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" ht="16" customHeight="1">
+    <row r="21" spans="1:18" ht="16" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -1673,7 +1762,7 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
     </row>
-    <row r="22" ht="16" customHeight="1">
+    <row r="22" spans="1:18" ht="16" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -1693,7 +1782,7 @@
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
+    <row r="23" spans="1:18" ht="16" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -1713,7 +1802,7 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
+    <row r="24" spans="1:18" ht="16" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -1733,7 +1822,7 @@
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" ht="16" customHeight="1">
+    <row r="25" spans="1:18" ht="16" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -1753,7 +1842,7 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
     </row>
-    <row r="26" ht="16" customHeight="1">
+    <row r="26" spans="1:18" ht="16" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -1773,7 +1862,7 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" ht="16" customHeight="1">
+    <row r="27" spans="1:18" ht="16" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
@@ -1793,7 +1882,7 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
     </row>
-    <row r="28" ht="16" customHeight="1">
+    <row r="28" spans="1:18" ht="16" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
@@ -1813,7 +1902,7 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
     </row>
-    <row r="29" ht="16" customHeight="1">
+    <row r="29" spans="1:18" ht="16" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
@@ -1833,7 +1922,7 @@
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
     </row>
-    <row r="30" ht="16" customHeight="1">
+    <row r="30" spans="1:18" ht="16" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
@@ -1853,7 +1942,7 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
     </row>
-    <row r="31" ht="16" customHeight="1">
+    <row r="31" spans="1:18" ht="16" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
@@ -1873,7 +1962,7 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
     </row>
-    <row r="32" ht="16" customHeight="1">
+    <row r="32" spans="1:18" ht="16" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
@@ -1893,7 +1982,7 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
     </row>
-    <row r="33" ht="16" customHeight="1">
+    <row r="33" spans="1:18" ht="16" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -1913,7 +2002,7 @@
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
     </row>
-    <row r="34" ht="16" customHeight="1">
+    <row r="34" spans="1:18" ht="16" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
@@ -1933,7 +2022,7 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
     </row>
-    <row r="35" ht="16" customHeight="1">
+    <row r="35" spans="1:18" ht="16" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
@@ -1953,7 +2042,7 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
     </row>
-    <row r="36" ht="16" customHeight="1">
+    <row r="36" spans="1:18" ht="16" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
@@ -1973,7 +2062,7 @@
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
     </row>
-    <row r="37" ht="16" customHeight="1">
+    <row r="37" spans="1:18" ht="16" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
@@ -1993,7 +2082,7 @@
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
     </row>
-    <row r="38" ht="16" customHeight="1">
+    <row r="38" spans="1:18" ht="16" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
@@ -2013,7 +2102,7 @@
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
     </row>
-    <row r="39" ht="16" customHeight="1">
+    <row r="39" spans="1:18" ht="16" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
@@ -2033,7 +2122,7 @@
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
     </row>
-    <row r="40" ht="16" customHeight="1">
+    <row r="40" spans="1:18" ht="16" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -2053,7 +2142,7 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
     </row>
-    <row r="41" ht="16" customHeight="1">
+    <row r="41" spans="1:18" ht="16" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -2073,7 +2162,7 @@
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
     </row>
-    <row r="42" ht="16" customHeight="1">
+    <row r="42" spans="1:18" ht="16" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
@@ -2093,7 +2182,7 @@
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
     </row>
-    <row r="43" ht="16" customHeight="1">
+    <row r="43" spans="1:18" ht="16" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
@@ -2113,7 +2202,7 @@
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
     </row>
-    <row r="44" ht="16" customHeight="1">
+    <row r="44" spans="1:18" ht="16" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
@@ -2133,7 +2222,7 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
     </row>
-    <row r="45" ht="16" customHeight="1">
+    <row r="45" spans="1:18" ht="16" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
@@ -2153,7 +2242,7 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
     </row>
-    <row r="46" ht="16" customHeight="1">
+    <row r="46" spans="1:18" ht="16" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -2173,7 +2262,7 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
     </row>
-    <row r="47" ht="16" customHeight="1">
+    <row r="47" spans="1:18" ht="16" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
@@ -2193,7 +2282,7 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
     </row>
-    <row r="48" ht="16" customHeight="1">
+    <row r="48" spans="1:18" ht="16" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
@@ -2213,7 +2302,7 @@
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
     </row>
-    <row r="49" ht="16" customHeight="1">
+    <row r="49" spans="1:18" ht="16" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
@@ -2233,7 +2322,7 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
     </row>
-    <row r="50" ht="16" customHeight="1">
+    <row r="50" spans="1:18" ht="16" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="7"/>
@@ -2253,7 +2342,7 @@
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
     </row>
-    <row r="51" ht="16" customHeight="1">
+    <row r="51" spans="1:18" ht="16" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
@@ -2273,7 +2362,7 @@
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" ht="16" customHeight="1">
+    <row r="52" spans="1:18" ht="16" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
@@ -2293,7 +2382,7 @@
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" ht="16" customHeight="1">
+    <row r="53" spans="1:18" ht="16" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="7"/>
@@ -2313,7 +2402,7 @@
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" ht="16" customHeight="1">
+    <row r="54" spans="1:18" ht="16" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
@@ -2333,7 +2422,7 @@
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
     </row>
-    <row r="55" ht="16" customHeight="1">
+    <row r="55" spans="1:18" ht="16" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
@@ -2353,7 +2442,7 @@
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
     </row>
-    <row r="56" ht="16" customHeight="1">
+    <row r="56" spans="1:18" ht="16" customHeight="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
@@ -2373,7 +2462,7 @@
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
     </row>
-    <row r="57" ht="16" customHeight="1">
+    <row r="57" spans="1:18" ht="16" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="7"/>
@@ -2393,7 +2482,7 @@
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
     </row>
-    <row r="58" ht="16" customHeight="1">
+    <row r="58" spans="1:18" ht="16" customHeight="1">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="7"/>
@@ -2413,7 +2502,7 @@
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
     </row>
-    <row r="59" ht="16" customHeight="1">
+    <row r="59" spans="1:18" ht="16" customHeight="1">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="7"/>
@@ -2433,7 +2522,7 @@
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
     </row>
-    <row r="60" ht="16" customHeight="1">
+    <row r="60" spans="1:18" ht="16" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="7"/>
@@ -2453,7 +2542,7 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
     </row>
-    <row r="61" ht="16" customHeight="1">
+    <row r="61" spans="1:18" ht="16" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="7"/>
@@ -2473,7 +2562,7 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
     </row>
-    <row r="62" ht="16" customHeight="1">
+    <row r="62" spans="1:18" ht="16" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="7"/>
@@ -2493,7 +2582,7 @@
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
     </row>
-    <row r="63" ht="16" customHeight="1">
+    <row r="63" spans="1:18" ht="16" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="7"/>
@@ -2513,7 +2602,7 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
     </row>
-    <row r="64" ht="16" customHeight="1">
+    <row r="64" spans="1:18" ht="16" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="7"/>
@@ -2533,7 +2622,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
     </row>
-    <row r="65" ht="16" customHeight="1">
+    <row r="65" spans="1:18" ht="16" customHeight="1">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="7"/>
@@ -2553,7 +2642,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" ht="16" customHeight="1">
+    <row r="66" spans="1:18" ht="16" customHeight="1">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="7"/>
@@ -2573,7 +2662,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" ht="16" customHeight="1">
+    <row r="67" spans="1:18" ht="16" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="7"/>
@@ -2593,7 +2682,7 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="68" ht="16" customHeight="1">
+    <row r="68" spans="1:18" ht="16" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="7"/>
@@ -2613,7 +2702,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" ht="16" customHeight="1">
+    <row r="69" spans="1:18" ht="16" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
@@ -2633,7 +2722,7 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
     </row>
-    <row r="70" ht="16" customHeight="1">
+    <row r="70" spans="1:18" ht="16" customHeight="1">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
@@ -2653,7 +2742,7 @@
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
     </row>
-    <row r="71" ht="16" customHeight="1">
+    <row r="71" spans="1:18" ht="16" customHeight="1">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
@@ -2673,7 +2762,7 @@
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
     </row>
-    <row r="72" ht="16" customHeight="1">
+    <row r="72" spans="1:18" ht="16" customHeight="1">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
@@ -2693,7 +2782,7 @@
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
     </row>
-    <row r="73" ht="16" customHeight="1">
+    <row r="73" spans="1:18" ht="16" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
@@ -2713,7 +2802,7 @@
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
     </row>
-    <row r="74" ht="16" customHeight="1">
+    <row r="74" spans="1:18" ht="16" customHeight="1">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
@@ -2733,7 +2822,7 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
     </row>
-    <row r="75" ht="16" customHeight="1">
+    <row r="75" spans="1:18" ht="16" customHeight="1">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
@@ -2753,7 +2842,7 @@
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
     </row>
-    <row r="76" ht="16" customHeight="1">
+    <row r="76" spans="1:18" ht="16" customHeight="1">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
@@ -2773,7 +2862,7 @@
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
     </row>
-    <row r="77" ht="16" customHeight="1">
+    <row r="77" spans="1:18" ht="16" customHeight="1">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
@@ -2793,7 +2882,7 @@
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
     </row>
-    <row r="78" ht="16" customHeight="1">
+    <row r="78" spans="1:18" ht="16" customHeight="1">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
@@ -2813,7 +2902,7 @@
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
     </row>
-    <row r="79" ht="16" customHeight="1">
+    <row r="79" spans="1:18" ht="16" customHeight="1">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
@@ -2833,7 +2922,7 @@
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
     </row>
-    <row r="80" ht="16" customHeight="1">
+    <row r="80" spans="1:18" ht="16" customHeight="1">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
@@ -2853,7 +2942,7 @@
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
     </row>
-    <row r="81" ht="16" customHeight="1">
+    <row r="81" spans="1:18" ht="16" customHeight="1">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
@@ -2873,7 +2962,7 @@
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
     </row>
-    <row r="82" ht="16" customHeight="1">
+    <row r="82" spans="1:18" ht="16" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
@@ -2893,7 +2982,7 @@
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
     </row>
-    <row r="83" ht="16" customHeight="1">
+    <row r="83" spans="1:18" ht="16" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
@@ -2913,7 +3002,7 @@
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
     </row>
-    <row r="84" ht="16" customHeight="1">
+    <row r="84" spans="1:18" ht="16" customHeight="1">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
@@ -2933,7 +3022,7 @@
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
     </row>
-    <row r="85" ht="16" customHeight="1">
+    <row r="85" spans="1:18" ht="16" customHeight="1">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
@@ -2953,7 +3042,7 @@
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
     </row>
-    <row r="86" ht="16" customHeight="1">
+    <row r="86" spans="1:18" ht="16" customHeight="1">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
@@ -2973,7 +3062,7 @@
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
     </row>
-    <row r="87" ht="16" customHeight="1">
+    <row r="87" spans="1:18" ht="16" customHeight="1">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
@@ -2993,7 +3082,7 @@
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
     </row>
-    <row r="88" ht="16" customHeight="1">
+    <row r="88" spans="1:18" ht="16" customHeight="1">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
@@ -3013,7 +3102,7 @@
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
     </row>
-    <row r="89" ht="16" customHeight="1">
+    <row r="89" spans="1:18" ht="16" customHeight="1">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
@@ -3033,7 +3122,7 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
     </row>
-    <row r="90" ht="16" customHeight="1">
+    <row r="90" spans="1:18" ht="16" customHeight="1">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
@@ -3053,7 +3142,7 @@
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
     </row>
-    <row r="91" ht="16" customHeight="1">
+    <row r="91" spans="1:18" ht="16" customHeight="1">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
@@ -3073,7 +3162,7 @@
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
     </row>
-    <row r="92" ht="16" customHeight="1">
+    <row r="92" spans="1:18" ht="16" customHeight="1">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
@@ -3093,7 +3182,7 @@
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
     </row>
-    <row r="93" ht="16" customHeight="1">
+    <row r="93" spans="1:18" ht="16" customHeight="1">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
@@ -3113,7 +3202,7 @@
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
     </row>
-    <row r="94" ht="16" customHeight="1">
+    <row r="94" spans="1:18" ht="16" customHeight="1">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
@@ -3133,7 +3222,7 @@
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
     </row>
-    <row r="95" ht="16" customHeight="1">
+    <row r="95" spans="1:18" ht="16" customHeight="1">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
@@ -3153,7 +3242,7 @@
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
     </row>
-    <row r="96" ht="16" customHeight="1">
+    <row r="96" spans="1:18" ht="16" customHeight="1">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
@@ -3173,7 +3262,7 @@
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
     </row>
-    <row r="97" ht="16" customHeight="1">
+    <row r="97" spans="1:18" ht="16" customHeight="1">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
@@ -3193,7 +3282,7 @@
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
     </row>
-    <row r="98" ht="16" customHeight="1">
+    <row r="98" spans="1:18" ht="16" customHeight="1">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
@@ -3213,7 +3302,7 @@
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
     </row>
-    <row r="99" ht="16" customHeight="1">
+    <row r="99" spans="1:18" ht="16" customHeight="1">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
@@ -3233,7 +3322,7 @@
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
     </row>
-    <row r="100" ht="16" customHeight="1">
+    <row r="100" spans="1:18" ht="16" customHeight="1">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
@@ -3253,7 +3342,7 @@
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
     </row>
-    <row r="101" ht="16" customHeight="1">
+    <row r="101" spans="1:18" ht="16" customHeight="1">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
@@ -3273,7 +3362,7 @@
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
     </row>
-    <row r="102" ht="16" customHeight="1">
+    <row r="102" spans="1:18" ht="16" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
@@ -3293,7 +3382,7 @@
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
     </row>
-    <row r="103" ht="16" customHeight="1">
+    <row r="103" spans="1:18" ht="16" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
@@ -3313,7 +3402,7 @@
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
     </row>
-    <row r="104" ht="16" customHeight="1">
+    <row r="104" spans="1:18" ht="16" customHeight="1">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
@@ -3333,7 +3422,7 @@
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
     </row>
-    <row r="105" ht="16" customHeight="1">
+    <row r="105" spans="1:18" ht="16" customHeight="1">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
@@ -3353,7 +3442,7 @@
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
     </row>
-    <row r="106" ht="16" customHeight="1">
+    <row r="106" spans="1:18" ht="16" customHeight="1">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
@@ -3373,7 +3462,7 @@
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
     </row>
-    <row r="107" ht="16" customHeight="1">
+    <row r="107" spans="1:18" ht="16" customHeight="1">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
@@ -3393,7 +3482,7 @@
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
     </row>
-    <row r="108" ht="16" customHeight="1">
+    <row r="108" spans="1:18" ht="16" customHeight="1">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
@@ -3413,7 +3502,7 @@
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
     </row>
-    <row r="109" ht="16" customHeight="1">
+    <row r="109" spans="1:18" ht="16" customHeight="1">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
@@ -3433,7 +3522,7 @@
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
     </row>
-    <row r="110" ht="16" customHeight="1">
+    <row r="110" spans="1:18" ht="16" customHeight="1">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
@@ -3453,7 +3542,7 @@
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
     </row>
-    <row r="111" ht="16" customHeight="1">
+    <row r="111" spans="1:18" ht="16" customHeight="1">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
@@ -3473,7 +3562,7 @@
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
     </row>
-    <row r="112" ht="16" customHeight="1">
+    <row r="112" spans="1:18" ht="16" customHeight="1">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
@@ -3493,7 +3582,7 @@
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
     </row>
-    <row r="113" ht="16" customHeight="1">
+    <row r="113" spans="1:18" ht="16" customHeight="1">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
@@ -3513,7 +3602,7 @@
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
     </row>
-    <row r="114" ht="16" customHeight="1">
+    <row r="114" spans="1:18" ht="16" customHeight="1">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
@@ -3533,7 +3622,7 @@
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
     </row>
-    <row r="115" ht="16" customHeight="1">
+    <row r="115" spans="1:18" ht="16" customHeight="1">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
@@ -3553,7 +3642,7 @@
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
     </row>
-    <row r="116" ht="16" customHeight="1">
+    <row r="116" spans="1:18" ht="16" customHeight="1">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
@@ -3573,7 +3662,7 @@
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
     </row>
-    <row r="117" ht="16" customHeight="1">
+    <row r="117" spans="1:18" ht="16" customHeight="1">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
@@ -3593,7 +3682,7 @@
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
     </row>
-    <row r="118" ht="16" customHeight="1">
+    <row r="118" spans="1:18" ht="16" customHeight="1">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
@@ -3613,7 +3702,7 @@
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
     </row>
-    <row r="119" ht="16" customHeight="1">
+    <row r="119" spans="1:18" ht="16" customHeight="1">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
@@ -3633,7 +3722,7 @@
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
     </row>
-    <row r="120" ht="16" customHeight="1">
+    <row r="120" spans="1:18" ht="16" customHeight="1">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
@@ -3653,7 +3742,7 @@
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
     </row>
-    <row r="121" ht="16" customHeight="1">
+    <row r="121" spans="1:18" ht="16" customHeight="1">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
@@ -3673,7 +3762,7 @@
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
     </row>
-    <row r="122" ht="16" customHeight="1">
+    <row r="122" spans="1:18" ht="16" customHeight="1">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
@@ -3693,7 +3782,7 @@
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
     </row>
-    <row r="123" ht="16" customHeight="1">
+    <row r="123" spans="1:18" ht="16" customHeight="1">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
@@ -3713,7 +3802,7 @@
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
     </row>
-    <row r="124" ht="16" customHeight="1">
+    <row r="124" spans="1:18" ht="16" customHeight="1">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
@@ -3733,7 +3822,7 @@
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
     </row>
-    <row r="125" ht="16" customHeight="1">
+    <row r="125" spans="1:18" ht="16" customHeight="1">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
@@ -3753,7 +3842,7 @@
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
     </row>
-    <row r="126" ht="16" customHeight="1">
+    <row r="126" spans="1:18" ht="16" customHeight="1">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
@@ -3773,7 +3862,7 @@
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
     </row>
-    <row r="127" ht="16" customHeight="1">
+    <row r="127" spans="1:18" ht="16" customHeight="1">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
@@ -3793,7 +3882,7 @@
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
     </row>
-    <row r="128" ht="16" customHeight="1">
+    <row r="128" spans="1:18" ht="16" customHeight="1">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
@@ -3813,7 +3902,7 @@
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
     </row>
-    <row r="129" ht="16" customHeight="1">
+    <row r="129" spans="1:18" ht="16" customHeight="1">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
@@ -3833,7 +3922,7 @@
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
     </row>
-    <row r="130" ht="16" customHeight="1">
+    <row r="130" spans="1:18" ht="16" customHeight="1">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
@@ -3853,7 +3942,7 @@
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
     </row>
-    <row r="131" ht="16" customHeight="1">
+    <row r="131" spans="1:18" ht="16" customHeight="1">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
@@ -3873,7 +3962,7 @@
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
     </row>
-    <row r="132" ht="16" customHeight="1">
+    <row r="132" spans="1:18" ht="16" customHeight="1">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
@@ -3893,7 +3982,7 @@
       <c r="Q132" s="7"/>
       <c r="R132" s="7"/>
     </row>
-    <row r="133" ht="16" customHeight="1">
+    <row r="133" spans="1:18" ht="16" customHeight="1">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
@@ -3913,7 +4002,7 @@
       <c r="Q133" s="7"/>
       <c r="R133" s="7"/>
     </row>
-    <row r="134" ht="16" customHeight="1">
+    <row r="134" spans="1:18" ht="16" customHeight="1">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
@@ -3933,7 +4022,7 @@
       <c r="Q134" s="7"/>
       <c r="R134" s="7"/>
     </row>
-    <row r="135" ht="16" customHeight="1">
+    <row r="135" spans="1:18" ht="16" customHeight="1">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
@@ -3953,7 +4042,7 @@
       <c r="Q135" s="7"/>
       <c r="R135" s="7"/>
     </row>
-    <row r="136" ht="16" customHeight="1">
+    <row r="136" spans="1:18" ht="16" customHeight="1">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
@@ -3973,7 +4062,7 @@
       <c r="Q136" s="7"/>
       <c r="R136" s="7"/>
     </row>
-    <row r="137" ht="16" customHeight="1">
+    <row r="137" spans="1:18" ht="16" customHeight="1">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
@@ -3993,7 +4082,7 @@
       <c r="Q137" s="7"/>
       <c r="R137" s="7"/>
     </row>
-    <row r="138" ht="16" customHeight="1">
+    <row r="138" spans="1:18" ht="16" customHeight="1">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
@@ -4013,7 +4102,7 @@
       <c r="Q138" s="7"/>
       <c r="R138" s="7"/>
     </row>
-    <row r="139" ht="16" customHeight="1">
+    <row r="139" spans="1:18" ht="16" customHeight="1">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
@@ -4033,7 +4122,7 @@
       <c r="Q139" s="7"/>
       <c r="R139" s="7"/>
     </row>
-    <row r="140" ht="16" customHeight="1">
+    <row r="140" spans="1:18" ht="16" customHeight="1">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
@@ -4053,7 +4142,7 @@
       <c r="Q140" s="7"/>
       <c r="R140" s="7"/>
     </row>
-    <row r="141" ht="16" customHeight="1">
+    <row r="141" spans="1:18" ht="16" customHeight="1">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
@@ -4073,7 +4162,7 @@
       <c r="Q141" s="7"/>
       <c r="R141" s="7"/>
     </row>
-    <row r="142" ht="16" customHeight="1">
+    <row r="142" spans="1:18" ht="16" customHeight="1">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
@@ -4093,7 +4182,7 @@
       <c r="Q142" s="7"/>
       <c r="R142" s="7"/>
     </row>
-    <row r="143" ht="16" customHeight="1">
+    <row r="143" spans="1:18" ht="16" customHeight="1">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
@@ -4113,7 +4202,7 @@
       <c r="Q143" s="7"/>
       <c r="R143" s="7"/>
     </row>
-    <row r="144" ht="16" customHeight="1">
+    <row r="144" spans="1:18" ht="16" customHeight="1">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
@@ -4133,7 +4222,7 @@
       <c r="Q144" s="7"/>
       <c r="R144" s="7"/>
     </row>
-    <row r="145" ht="16" customHeight="1">
+    <row r="145" spans="1:18" ht="16" customHeight="1">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="7"/>
@@ -4153,7 +4242,7 @@
       <c r="Q145" s="7"/>
       <c r="R145" s="7"/>
     </row>
-    <row r="146" ht="16" customHeight="1">
+    <row r="146" spans="1:18" ht="16" customHeight="1">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="7"/>
@@ -4173,7 +4262,7 @@
       <c r="Q146" s="7"/>
       <c r="R146" s="7"/>
     </row>
-    <row r="147" ht="16" customHeight="1">
+    <row r="147" spans="1:18" ht="16" customHeight="1">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="7"/>
@@ -4193,7 +4282,7 @@
       <c r="Q147" s="7"/>
       <c r="R147" s="7"/>
     </row>
-    <row r="148" ht="16" customHeight="1">
+    <row r="148" spans="1:18" ht="16" customHeight="1">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="7"/>
@@ -4213,7 +4302,7 @@
       <c r="Q148" s="7"/>
       <c r="R148" s="7"/>
     </row>
-    <row r="149" ht="16" customHeight="1">
+    <row r="149" spans="1:18" ht="16" customHeight="1">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="7"/>
@@ -4233,7 +4322,7 @@
       <c r="Q149" s="7"/>
       <c r="R149" s="7"/>
     </row>
-    <row r="150" ht="16" customHeight="1">
+    <row r="150" spans="1:18" ht="16" customHeight="1">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="7"/>
@@ -4253,7 +4342,7 @@
       <c r="Q150" s="7"/>
       <c r="R150" s="7"/>
     </row>
-    <row r="151" ht="16" customHeight="1">
+    <row r="151" spans="1:18" ht="16" customHeight="1">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="7"/>
@@ -4273,7 +4362,7 @@
       <c r="Q151" s="7"/>
       <c r="R151" s="7"/>
     </row>
-    <row r="152" ht="16" customHeight="1">
+    <row r="152" spans="1:18" ht="16" customHeight="1">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="7"/>
@@ -4293,7 +4382,7 @@
       <c r="Q152" s="7"/>
       <c r="R152" s="7"/>
     </row>
-    <row r="153" ht="16" customHeight="1">
+    <row r="153" spans="1:18" ht="16" customHeight="1">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="7"/>
@@ -4313,7 +4402,7 @@
       <c r="Q153" s="7"/>
       <c r="R153" s="7"/>
     </row>
-    <row r="154" ht="16" customHeight="1">
+    <row r="154" spans="1:18" ht="16" customHeight="1">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="7"/>
@@ -4333,7 +4422,7 @@
       <c r="Q154" s="7"/>
       <c r="R154" s="7"/>
     </row>
-    <row r="155" ht="16" customHeight="1">
+    <row r="155" spans="1:18" ht="16" customHeight="1">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="7"/>
@@ -4353,7 +4442,7 @@
       <c r="Q155" s="7"/>
       <c r="R155" s="7"/>
     </row>
-    <row r="156" ht="16" customHeight="1">
+    <row r="156" spans="1:18" ht="16" customHeight="1">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="7"/>
@@ -4373,7 +4462,7 @@
       <c r="Q156" s="7"/>
       <c r="R156" s="7"/>
     </row>
-    <row r="157" ht="16" customHeight="1">
+    <row r="157" spans="1:18" ht="16" customHeight="1">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="7"/>
@@ -4393,7 +4482,7 @@
       <c r="Q157" s="7"/>
       <c r="R157" s="7"/>
     </row>
-    <row r="158" ht="16" customHeight="1">
+    <row r="158" spans="1:18" ht="16" customHeight="1">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="7"/>
@@ -4413,7 +4502,7 @@
       <c r="Q158" s="7"/>
       <c r="R158" s="7"/>
     </row>
-    <row r="159" ht="16" customHeight="1">
+    <row r="159" spans="1:18" ht="16" customHeight="1">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="7"/>
@@ -4433,7 +4522,7 @@
       <c r="Q159" s="7"/>
       <c r="R159" s="7"/>
     </row>
-    <row r="160" ht="16" customHeight="1">
+    <row r="160" spans="1:18" ht="16" customHeight="1">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="7"/>
@@ -4453,7 +4542,7 @@
       <c r="Q160" s="7"/>
       <c r="R160" s="7"/>
     </row>
-    <row r="161" ht="16" customHeight="1">
+    <row r="161" spans="1:18" ht="16" customHeight="1">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="7"/>
@@ -4473,7 +4562,7 @@
       <c r="Q161" s="7"/>
       <c r="R161" s="7"/>
     </row>
-    <row r="162" ht="16" customHeight="1">
+    <row r="162" spans="1:18" ht="16" customHeight="1">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="7"/>
@@ -4493,7 +4582,7 @@
       <c r="Q162" s="7"/>
       <c r="R162" s="7"/>
     </row>
-    <row r="163" ht="16" customHeight="1">
+    <row r="163" spans="1:18" ht="16" customHeight="1">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="7"/>
@@ -4513,7 +4602,7 @@
       <c r="Q163" s="7"/>
       <c r="R163" s="7"/>
     </row>
-    <row r="164" ht="16" customHeight="1">
+    <row r="164" spans="1:18" ht="16" customHeight="1">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="7"/>
@@ -4533,7 +4622,7 @@
       <c r="Q164" s="7"/>
       <c r="R164" s="7"/>
     </row>
-    <row r="165" ht="16" customHeight="1">
+    <row r="165" spans="1:18" ht="16" customHeight="1">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="7"/>
@@ -4553,7 +4642,7 @@
       <c r="Q165" s="7"/>
       <c r="R165" s="7"/>
     </row>
-    <row r="166" ht="16" customHeight="1">
+    <row r="166" spans="1:18" ht="16" customHeight="1">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="7"/>
@@ -4573,7 +4662,7 @@
       <c r="Q166" s="7"/>
       <c r="R166" s="7"/>
     </row>
-    <row r="167" ht="16" customHeight="1">
+    <row r="167" spans="1:18" ht="16" customHeight="1">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="7"/>
@@ -4593,7 +4682,7 @@
       <c r="Q167" s="7"/>
       <c r="R167" s="7"/>
     </row>
-    <row r="168" ht="16" customHeight="1">
+    <row r="168" spans="1:18" ht="16" customHeight="1">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="7"/>
@@ -4613,7 +4702,7 @@
       <c r="Q168" s="7"/>
       <c r="R168" s="7"/>
     </row>
-    <row r="169" ht="16" customHeight="1">
+    <row r="169" spans="1:18" ht="16" customHeight="1">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="7"/>
@@ -4633,7 +4722,7 @@
       <c r="Q169" s="7"/>
       <c r="R169" s="7"/>
     </row>
-    <row r="170" ht="16" customHeight="1">
+    <row r="170" spans="1:18" ht="16" customHeight="1">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="7"/>
@@ -4653,7 +4742,7 @@
       <c r="Q170" s="7"/>
       <c r="R170" s="7"/>
     </row>
-    <row r="171" ht="16" customHeight="1">
+    <row r="171" spans="1:18" ht="16" customHeight="1">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="7"/>
@@ -4673,7 +4762,7 @@
       <c r="Q171" s="7"/>
       <c r="R171" s="7"/>
     </row>
-    <row r="172" ht="16" customHeight="1">
+    <row r="172" spans="1:18" ht="16" customHeight="1">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="7"/>
@@ -4693,7 +4782,7 @@
       <c r="Q172" s="7"/>
       <c r="R172" s="7"/>
     </row>
-    <row r="173" ht="16" customHeight="1">
+    <row r="173" spans="1:18" ht="16" customHeight="1">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="7"/>
@@ -4713,7 +4802,7 @@
       <c r="Q173" s="7"/>
       <c r="R173" s="7"/>
     </row>
-    <row r="174" ht="16" customHeight="1">
+    <row r="174" spans="1:18" ht="16" customHeight="1">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="7"/>
@@ -4733,7 +4822,7 @@
       <c r="Q174" s="7"/>
       <c r="R174" s="7"/>
     </row>
-    <row r="175" ht="16" customHeight="1">
+    <row r="175" spans="1:18" ht="16" customHeight="1">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="7"/>
@@ -4753,7 +4842,7 @@
       <c r="Q175" s="7"/>
       <c r="R175" s="7"/>
     </row>
-    <row r="176" ht="16" customHeight="1">
+    <row r="176" spans="1:18" ht="16" customHeight="1">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="7"/>
@@ -4773,7 +4862,7 @@
       <c r="Q176" s="7"/>
       <c r="R176" s="7"/>
     </row>
-    <row r="177" ht="16" customHeight="1">
+    <row r="177" spans="1:18" ht="16" customHeight="1">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="7"/>
@@ -4793,7 +4882,7 @@
       <c r="Q177" s="7"/>
       <c r="R177" s="7"/>
     </row>
-    <row r="178" ht="16" customHeight="1">
+    <row r="178" spans="1:18" ht="16" customHeight="1">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="7"/>
@@ -4813,7 +4902,7 @@
       <c r="Q178" s="7"/>
       <c r="R178" s="7"/>
     </row>
-    <row r="179" ht="16" customHeight="1">
+    <row r="179" spans="1:18" ht="16" customHeight="1">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="7"/>
@@ -4833,7 +4922,7 @@
       <c r="Q179" s="7"/>
       <c r="R179" s="7"/>
     </row>
-    <row r="180" ht="16" customHeight="1">
+    <row r="180" spans="1:18" ht="16" customHeight="1">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="7"/>
@@ -4853,7 +4942,7 @@
       <c r="Q180" s="7"/>
       <c r="R180" s="7"/>
     </row>
-    <row r="181" ht="16" customHeight="1">
+    <row r="181" spans="1:18" ht="16" customHeight="1">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="7"/>
@@ -4873,7 +4962,7 @@
       <c r="Q181" s="7"/>
       <c r="R181" s="7"/>
     </row>
-    <row r="182" ht="16" customHeight="1">
+    <row r="182" spans="1:18" ht="16" customHeight="1">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="7"/>
@@ -4893,7 +4982,7 @@
       <c r="Q182" s="7"/>
       <c r="R182" s="7"/>
     </row>
-    <row r="183" ht="16" customHeight="1">
+    <row r="183" spans="1:18" ht="16" customHeight="1">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="7"/>
@@ -4913,7 +5002,7 @@
       <c r="Q183" s="7"/>
       <c r="R183" s="7"/>
     </row>
-    <row r="184" ht="16" customHeight="1">
+    <row r="184" spans="1:18" ht="16" customHeight="1">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="7"/>
@@ -4933,7 +5022,7 @@
       <c r="Q184" s="7"/>
       <c r="R184" s="7"/>
     </row>
-    <row r="185" ht="16" customHeight="1">
+    <row r="185" spans="1:18" ht="16" customHeight="1">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="7"/>
@@ -4953,7 +5042,7 @@
       <c r="Q185" s="7"/>
       <c r="R185" s="7"/>
     </row>
-    <row r="186" ht="16" customHeight="1">
+    <row r="186" spans="1:18" ht="16" customHeight="1">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="7"/>
@@ -4973,7 +5062,7 @@
       <c r="Q186" s="7"/>
       <c r="R186" s="7"/>
     </row>
-    <row r="187" ht="16" customHeight="1">
+    <row r="187" spans="1:18" ht="16" customHeight="1">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="7"/>
@@ -4993,7 +5082,7 @@
       <c r="Q187" s="7"/>
       <c r="R187" s="7"/>
     </row>
-    <row r="188" ht="16" customHeight="1">
+    <row r="188" spans="1:18" ht="16" customHeight="1">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="7"/>
@@ -5013,7 +5102,7 @@
       <c r="Q188" s="7"/>
       <c r="R188" s="7"/>
     </row>
-    <row r="189" ht="16" customHeight="1">
+    <row r="189" spans="1:18" ht="16" customHeight="1">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="7"/>
@@ -5033,7 +5122,7 @@
       <c r="Q189" s="7"/>
       <c r="R189" s="7"/>
     </row>
-    <row r="190" ht="16" customHeight="1">
+    <row r="190" spans="1:18" ht="16" customHeight="1">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="7"/>
@@ -5053,7 +5142,7 @@
       <c r="Q190" s="7"/>
       <c r="R190" s="7"/>
     </row>
-    <row r="191" ht="16" customHeight="1">
+    <row r="191" spans="1:18" ht="16" customHeight="1">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="7"/>
@@ -5073,7 +5162,7 @@
       <c r="Q191" s="7"/>
       <c r="R191" s="7"/>
     </row>
-    <row r="192" ht="16" customHeight="1">
+    <row r="192" spans="1:18" ht="16" customHeight="1">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="7"/>
@@ -5093,7 +5182,7 @@
       <c r="Q192" s="7"/>
       <c r="R192" s="7"/>
     </row>
-    <row r="193" ht="16" customHeight="1">
+    <row r="193" spans="1:18" ht="16" customHeight="1">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="7"/>
@@ -5113,7 +5202,7 @@
       <c r="Q193" s="7"/>
       <c r="R193" s="7"/>
     </row>
-    <row r="194" ht="16" customHeight="1">
+    <row r="194" spans="1:18" ht="16" customHeight="1">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="7"/>
@@ -5133,7 +5222,7 @@
       <c r="Q194" s="7"/>
       <c r="R194" s="7"/>
     </row>
-    <row r="195" ht="16" customHeight="1">
+    <row r="195" spans="1:18" ht="16" customHeight="1">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="7"/>
@@ -5153,7 +5242,7 @@
       <c r="Q195" s="7"/>
       <c r="R195" s="7"/>
     </row>
-    <row r="196" ht="16" customHeight="1">
+    <row r="196" spans="1:18" ht="16" customHeight="1">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="7"/>
@@ -5175,7 +5264,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/public/static/template/import_chw_en.xlsx
+++ b/public/static/template/import_chw_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ztang/workspace/unc/src/visit-link-admin-web/public/static/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B061AD8-FB17-534B-9317-A55F72FF1BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7547509-C9F2-CD46-B1BB-4326E815DD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25400" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33280" yWindow="12940" windowWidth="25400" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baby Roster" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,6 @@
 2. Validate: Do not repeat in the Excel and the Database</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Required
-</t>
-  </si>
-  <si>
     <t>1.Required</t>
   </si>
   <si>
@@ -66,6 +62,10 @@
     <t>1. Require
 2. Validation:
 CHW Phone allow 5-20 digits</t>
+  </si>
+  <si>
+    <t>1. Required
+2. No more than 3 area. Please separate areas by ";"</t>
   </si>
 </sst>
 </file>
@@ -83,6 +83,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1292,7 +1293,7 @@
   <dimension ref="A1:R196"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.75" customHeight="1"/>
@@ -1352,19 +1353,19 @@
     </row>
     <row r="2" spans="1:18" ht="109" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>6</v>
